--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestLeaf\UIFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6B730C-17EC-4F76-BDCA-D85B1E1CE6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412069A1-5FDA-4096-976F-8158AE206222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{0CE60787-A033-4595-BC8C-3E8692DF2B45}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{0CE60787-A033-4595-BC8C-3E8692DF2B45}"/>
   </bookViews>
   <sheets>
     <sheet name="W3Schools Login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -47,15 +47,26 @@
   <si>
     <t>Saisai@31</t>
   </si>
+  <si>
+    <t>vijivasutej1786@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,14 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53651BDB-9474-46A1-8D84-E5EFAA146BA9}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,14 +432,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{44218455-F583-4C3E-9EB8-E5B384025D11}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{1996F94D-2E24-453A-B61D-EED1F5972BB2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>